--- a/data/trans_bre/CONS_ANT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,77%</t>
+          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,05; 0,16</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 4,94</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 3,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 2,22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 247,32</t>
+          <t>-70,43; 330,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,58%</t>
+          <t>-28,4%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,82; 1,6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 3,16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 1,46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 1,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,45; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 248,32</t>
+          <t>-81,3; 170,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-85,65%</t>
+          <t>43,77%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,47; 2,6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 1,03</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 3,32</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; -0,53</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,76; 69,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,86</t>
+          <t>-59,37; 344,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,0%</t>
+          <t>167,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-54,47%</t>
+          <t>75,85%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,5</t>
+          <t>-1,16; 1,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,65</t>
+          <t>0,05; 7,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,29</t>
+          <t>-0,7; 2,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 342,99</t>
+          <t>-78,79; 333,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,06; 689,39</t>
+          <t>-8,32; 1112,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,35; 497,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-32,03%</t>
+          <t>-61,97%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>164,24%</t>
+          <t>74,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>200,18%</t>
+          <t>295,41%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,51</t>
+          <t>-1,9; 0,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,22</t>
+          <t>-0,26; 4,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,71</t>
+          <t>0,58; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 184,87</t>
+          <t>-93,45; 68,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 4037,72</t>
+          <t>-13,73; 279,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,65; 1855,83</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>-24,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>144,92%</t>
+          <t>69,47%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,0</t>
+          <t>-0,74; 1,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,06</t>
+          <t>-4,55; 1,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,19</t>
+          <t>-0,68; 3,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 281,01</t>
+          <t>-74,12; 516,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 141,46</t>
+          <t>-84,01; 81,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 1246,52</t>
+          <t>-31,84; 306,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>875,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>14,84%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,46</t>
+          <t>-1,05; 1,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,4</t>
+          <t>2,89; 8,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,92</t>
+          <t>-1,52; 2,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-77,76; 187,78</t>
+          <t>-50,98; 350,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 218,87</t>
+          <t>120,95; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-70,18; 275,01</t>
+          <t>-54,9; 198,81</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>191,07%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,57%</t>
+          <t>47,5%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,12</t>
+          <t>-0,34; 0,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,04</t>
+          <t>-0,14; 2,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,31</t>
+          <t>0,02; 1,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 1058,72</t>
+          <t>-30,75; 100,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 179,25</t>
+          <t>-6,51; 159,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,64; 113,47</t>
+          <t>0,6; 122,25</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>98,03%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>5,58%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 3,73</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 1,95</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 1,2</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-14,15; 353,45</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-57,81; 110,56</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-67,87; 217,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>15,96%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>62,7%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 2,2</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 4,32</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 1,53</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-46,61; 151,82</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-14,64; 249,92</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-50,05; 281,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>37,82%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>38,77%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-6,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 1,5</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 1,79</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 0,35</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 103,38</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 93,88</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-35,99; 40,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_ANT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-75,26%</t>
+          <t>-55,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,16</t>
+          <t>-1,59; 0,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,94</t>
+          <t>-4,2; 5,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,6</t>
+          <t>-1,08; 1,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,16</t>
+          <t>-2,23; 3,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,45; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>143,48%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,6</t>
+          <t>-0,73; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,03</t>
+          <t>-3,78; 1,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,54; 1143,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,76; 69,52</t>
+          <t>-74,08; 77,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,12</t>
+          <t>-0,75; 1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 7,17</t>
+          <t>-0,05; 7,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,79; 333,18</t>
+          <t>-73,17; 495,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 1112,33</t>
+          <t>-15,34; 1058,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-61,97%</t>
+          <t>-23,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,12</t>
+          <t>-1,17; 0,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,59</t>
+          <t>-0,36; 4,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-93,45; 68,77</t>
+          <t>-87,75; 239,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 279,76</t>
+          <t>-14,92; 300,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>51,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,84</t>
+          <t>-0,62; 1,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,66</t>
+          <t>-4,57; 1,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,12; 516,19</t>
+          <t>-61,35; 518,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,01; 81,11</t>
+          <t>-84,74; 81,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,72</t>
+          <t>-0,57; 2,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,42</t>
+          <t>2,92; 8,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-50,98; 350,99</t>
+          <t>-35,26; 362,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>120,95; —</t>
+          <t>109,63; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,65</t>
+          <t>-0,14; 0,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,45</t>
+          <t>0,01; 2,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 100,93</t>
+          <t>-15,02; 131,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 159,56</t>
+          <t>0,41; 162,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_ANT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,3</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>62,05%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-55,79%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29,15%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -642,19 +642,19 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,54; 6,05</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 3,03</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,59; 0,43</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 5,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 3,03</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-70,43; 330,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-70,43; 330,82</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>49,16%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-28,4%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>38,79%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>97,18%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-28,4%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,65; 3,63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 1,46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,08; 1,19</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 3,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 1,46</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-79,34; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-81,3; 170,38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-81,3; 170,38</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,46</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-20,99%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43,77%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>66,23%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-34,16%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>43,77%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,81; 1,44</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 3,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,73; 1,85</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 1,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 3,32</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-67,9; 106,8</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-59,37; 344,93</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-81,54; 1143,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-74,08; 77,9</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-59,37; 344,93</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,18</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>29,44%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>75,85%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>27,02%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>167,17%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>75,85%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,36; 2,53</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 2,72</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,75; 1,09</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 7,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 2,72</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-43,5; 222,71</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-61,35; 497,36</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-73,17; 495,42</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-15,34; 1058,96</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-61,35; 497,36</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,2</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>115,3%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>295,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-23,24%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>74,5%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>295,41%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,61; 5,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 4,43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,17; 0,78</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 4,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 4,43</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>4,24; 389,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17,65; 1855,83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-87,75; 239,67</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,92; 300,28</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,65; 1855,83</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>49,79%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69,47%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>51,29%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-24,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>69,47%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-1,07; 4,05</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 3,19</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-0,62; 1,78</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 1,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 3,19</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-31,73; 292,19</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-31,84; 306,57</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-61,35; 518,13</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-84,74; 81,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-31,84; 306,57</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1003,16%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>75,73%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>875,91%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,19; 8,98</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 2,37</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-0,57; 2,33</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 8,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 2,37</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>128,32; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-54,9; 198,81</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-35,26; 362,41</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>109,63; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-54,9; 198,81</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>47,5%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>39,33%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>59,7%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>47,5%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,42; 2,47</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 1,64</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-0,14; 0,74</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 2,47</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 1,64</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>13,83; 146,16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 122,25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-15,02; 131,47</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 162,67</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 122,25</t>
         </is>
       </c>
     </row>
